--- a/Source/Amba.Report.Test/Amba.Report.Test/Templates/ReportTemplate2.xlsx
+++ b/Source/Amba.Report.Test/Amba.Report.Test/Templates/ReportTemplate2.xlsx
@@ -2,42 +2,118 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AmbaCloud\Amba.Report\Source\Amba.Report.Test\Amba.Report.Test\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27870" yWindow="120" windowWidth="23775" windowHeight="15015"/>
+    <workbookView xWindow="30090" yWindow="120" windowWidth="23775" windowHeight="15015"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Date">Report!$B$3</definedName>
+    <definedName name="Date">Report!$D$3</definedName>
     <definedName name="Group1">Report!$12:$12,Report!$16:$16</definedName>
     <definedName name="Group1.Group2">Report!$13:$13,Report!$15:$15</definedName>
     <definedName name="Group1.Group2.Details">Report!$14:$14</definedName>
-    <definedName name="Group1.Group2.Details.Item">Report!$A$14</definedName>
-    <definedName name="Group1.Group2.Details.Price">Report!$C$14</definedName>
-    <definedName name="Group1.Group2.Details.Qnt">Report!$B$14</definedName>
-    <definedName name="Group1.Group2.Name">Report!$B$13,Report!$B$15</definedName>
-    <definedName name="Group1.Item">Report!$B$12,Report!$B$16</definedName>
+    <definedName name="Group1.Group2.Details.Item">Report!$C$14</definedName>
+    <definedName name="Group1.Group2.Details.Price">Report!$E$14</definedName>
+    <definedName name="Group1.Group2.Details.Qnt">Report!$D$14</definedName>
+    <definedName name="Group1.Group2.Name">Report!$D$13,Report!$D$15</definedName>
+    <definedName name="Group1.Item">Report!$D$12,Report!$D$16</definedName>
     <definedName name="Items">Report!$8:$8</definedName>
-    <definedName name="Items.Item">Report!$A$8</definedName>
-    <definedName name="Items.Price">Report!$C$8</definedName>
-    <definedName name="Items.Qnt">Report!$B$8</definedName>
-    <definedName name="Num">Report!$B$2</definedName>
-    <definedName name="Org.Name">Report!$B$4</definedName>
+    <definedName name="Items.Item">Report!$C$8</definedName>
+    <definedName name="Items.Price">Report!$E$8</definedName>
+    <definedName name="Items.Qnt">Report!$D$8</definedName>
+    <definedName name="Num">Report!$D$2</definedName>
+    <definedName name="Org.Name">Report!$D$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Владимир Кузнецов</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Num</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Org.Name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Владимир Кузнецов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Group1.Group2.Name</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -76,13 +152,46 @@
   </si>
   <si>
     <t>Footer 2:</t>
+  </si>
+  <si>
+    <t>Items{Header}</t>
+  </si>
+  <si>
+    <t>Items{Rows}</t>
+  </si>
+  <si>
+    <t>{Header}</t>
+  </si>
+  <si>
+    <t>Items{Footer}</t>
+  </si>
+  <si>
+    <t>Group1{Header}</t>
+  </si>
+  <si>
+    <t>Group1{Rows}</t>
+  </si>
+  <si>
+    <t>Group1{Footer}</t>
+  </si>
+  <si>
+    <t>Group1.Group2{Header}</t>
+  </si>
+  <si>
+    <t>Group1.Group2{Footer}</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Footer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +206,19 @@
       <name val="Gill Sans MT"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -172,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -195,24 +317,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,145 +684,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" ht="15">
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <f>B8*C8</f>
+    <row r="8" spans="1:6">
+      <c r="B8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f>D8*E8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="9" spans="1:6">
+      <c r="B9" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" ht="15">
+      <c r="B11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8">
-        <f>B12*C12</f>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="8">
+        <f>D12*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="15">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="15">
+      <c r="B13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="12">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>B14*C14</f>
+    <row r="14" spans="1:6">
+      <c r="B14" s="17"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f>D14*E14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:6" ht="15">
+      <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14">
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="B16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8">
-        <f>B16*C16</f>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="8">
+        <f>D16*E16</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>